--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Inhbb-Acvr1b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H2">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J2">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N2">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P2">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q2">
-        <v>2.846422627490556</v>
+        <v>17.37461134875555</v>
       </c>
       <c r="R2">
-        <v>25.617803647415</v>
+        <v>156.3715021388</v>
       </c>
       <c r="S2">
-        <v>0.0260071111833783</v>
+        <v>0.1047538470679989</v>
       </c>
       <c r="T2">
-        <v>0.0260071111833783</v>
+        <v>0.1047538470679989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H3">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J3">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N3">
         <v>17.409842</v>
       </c>
       <c r="O3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P3">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q3">
-        <v>8.787410765822889</v>
+        <v>35.08044474462221</v>
       </c>
       <c r="R3">
-        <v>79.08669689240601</v>
+        <v>315.7240027015999</v>
       </c>
       <c r="S3">
-        <v>0.08028855820411006</v>
+        <v>0.211504675994882</v>
       </c>
       <c r="T3">
-        <v>0.08028855820411006</v>
+        <v>0.2115046759948819</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H4">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J4">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N4">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P4">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q4">
-        <v>6.811361565561</v>
+        <v>34.44233755199999</v>
       </c>
       <c r="R4">
-        <v>61.302254090049</v>
+        <v>309.981037968</v>
       </c>
       <c r="S4">
-        <v>0.06223384954675792</v>
+        <v>0.2076574426998635</v>
       </c>
       <c r="T4">
-        <v>0.06223384954675792</v>
+        <v>0.2076574426998634</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H5">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J5">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N5">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P5">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q5">
-        <v>3.090766347079444</v>
+        <v>6.99071957271111</v>
       </c>
       <c r="R5">
-        <v>27.816897123715</v>
+        <v>62.91647615439999</v>
       </c>
       <c r="S5">
-        <v>0.02823962374877721</v>
+        <v>0.04214797984920091</v>
       </c>
       <c r="T5">
-        <v>0.02823962374877721</v>
+        <v>0.0421479798492009</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H6">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J6">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N6">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P6">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q6">
-        <v>9.743245440548668</v>
+        <v>39.72522845453332</v>
       </c>
       <c r="R6">
-        <v>87.689208964938</v>
+        <v>357.5270560907999</v>
       </c>
       <c r="S6">
-        <v>0.08902180056188218</v>
+        <v>0.2395086959205887</v>
       </c>
       <c r="T6">
-        <v>0.08902180056188218</v>
+        <v>0.2395086959205887</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.514214333333333</v>
+        <v>6.044933333333333</v>
       </c>
       <c r="H7">
-        <v>4.542643</v>
+        <v>18.1348</v>
       </c>
       <c r="I7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868625</v>
       </c>
       <c r="J7">
-        <v>0.3482435661103787</v>
+        <v>0.9708761253868624</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N7">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P7">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q7">
-        <v>6.835305836814</v>
+        <v>27.41745403106667</v>
       </c>
       <c r="R7">
-        <v>61.517752531326</v>
+        <v>246.7570862796</v>
       </c>
       <c r="S7">
-        <v>0.06245262286547298</v>
+        <v>0.1653034838543286</v>
       </c>
       <c r="T7">
-        <v>0.06245262286547299</v>
+        <v>0.1653034838543286</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.340208</v>
       </c>
       <c r="I8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J8">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N8">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P8">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q8">
-        <v>0.2131745218044444</v>
+        <v>0.3259468964497778</v>
       </c>
       <c r="R8">
-        <v>1.91857069624</v>
+        <v>2.933522068048</v>
       </c>
       <c r="S8">
-        <v>0.001947726748827668</v>
+        <v>0.001965177272609005</v>
       </c>
       <c r="T8">
-        <v>0.001947726748827668</v>
+        <v>0.001965177272609005</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.340208</v>
       </c>
       <c r="I9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J9">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N9">
         <v>17.409842</v>
       </c>
       <c r="O9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P9">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q9">
-        <v>0.6581075030151111</v>
+        <v>0.658107503015111</v>
       </c>
       <c r="R9">
         <v>5.922967527136</v>
       </c>
       <c r="S9">
-        <v>0.006012977425147403</v>
+        <v>0.003967817831509958</v>
       </c>
       <c r="T9">
-        <v>0.006012977425147403</v>
+        <v>0.003967817831509958</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.340208</v>
       </c>
       <c r="I10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J10">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N10">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P10">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q10">
-        <v>0.5101170608159999</v>
+        <v>0.64613664192</v>
       </c>
       <c r="R10">
-        <v>4.591053547344</v>
+        <v>5.815229777279999</v>
       </c>
       <c r="S10">
-        <v>0.004660822672308483</v>
+        <v>0.003895643914795595</v>
       </c>
       <c r="T10">
-        <v>0.004660822672308483</v>
+        <v>0.003895643914795595</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.340208</v>
       </c>
       <c r="I11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J11">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N11">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P11">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q11">
-        <v>0.2314739321155555</v>
+        <v>0.1311455722915555</v>
       </c>
       <c r="R11">
-        <v>2.08326538904</v>
+        <v>1.180310150624</v>
       </c>
       <c r="S11">
-        <v>0.002114924266847295</v>
+        <v>0.0007906941310925371</v>
       </c>
       <c r="T11">
-        <v>0.002114924266847295</v>
+        <v>0.0007906941310925371</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.340208</v>
       </c>
       <c r="I12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J12">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N12">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P12">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q12">
-        <v>0.7296919535253333</v>
+        <v>0.7452434282186665</v>
       </c>
       <c r="R12">
-        <v>6.567227581728</v>
+        <v>6.707190853968</v>
       </c>
       <c r="S12">
-        <v>0.0066670281432102</v>
+        <v>0.004493171935822377</v>
       </c>
       <c r="T12">
-        <v>0.0066670281432102</v>
+        <v>0.004493171935822377</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.340208</v>
       </c>
       <c r="I13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="J13">
-        <v>0.02608068631835689</v>
+        <v>0.01821359071319307</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N13">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P13">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q13">
-        <v>0.5119102971840001</v>
+        <v>0.5143501555573333</v>
       </c>
       <c r="R13">
-        <v>4.607192674656</v>
+        <v>4.629151400016</v>
       </c>
       <c r="S13">
-        <v>0.004677207062015842</v>
+        <v>0.003101085627363601</v>
       </c>
       <c r="T13">
-        <v>0.004677207062015843</v>
+        <v>0.003101085627363601</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H14">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J14">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.879801666666667</v>
+        <v>2.874243666666667</v>
       </c>
       <c r="N14">
-        <v>5.639405</v>
+        <v>8.622731</v>
       </c>
       <c r="O14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="P14">
-        <v>0.07468080881969585</v>
+        <v>0.1078962025420678</v>
       </c>
       <c r="Q14">
-        <v>5.114057454817221</v>
+        <v>0.1952483303578889</v>
       </c>
       <c r="R14">
-        <v>46.026517093355</v>
+        <v>1.757234973221</v>
       </c>
       <c r="S14">
-        <v>0.04672597088748988</v>
+        <v>0.001177178201459876</v>
       </c>
       <c r="T14">
-        <v>0.04672597088748988</v>
+        <v>0.001177178201459877</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H15">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J15">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.803280666666667</v>
+        <v>5.803280666666666</v>
       </c>
       <c r="N15">
         <v>17.409842</v>
       </c>
       <c r="O15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="P15">
-        <v>0.230552883146912</v>
+        <v>0.2178492914434416</v>
       </c>
       <c r="Q15">
-        <v>15.78800108651355</v>
+        <v>0.3942187901135555</v>
       </c>
       <c r="R15">
-        <v>142.092009778622</v>
+        <v>3.547969111021999</v>
       </c>
       <c r="S15">
-        <v>0.1442513475176545</v>
+        <v>0.002376797617049705</v>
       </c>
       <c r="T15">
-        <v>0.1442513475176546</v>
+        <v>0.002376797617049705</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>25</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H16">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I16">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J16">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.498281</v>
+        <v>5.697719999999999</v>
       </c>
       <c r="N16">
-        <v>13.494843</v>
+        <v>17.09316</v>
       </c>
       <c r="O16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="P16">
-        <v>0.1787078229236614</v>
+        <v>0.2138866506961624</v>
       </c>
       <c r="Q16">
-        <v>12.237709908357</v>
+        <v>0.38704801884</v>
       </c>
       <c r="R16">
-        <v>110.139389175213</v>
+        <v>3.483432169559999</v>
       </c>
       <c r="S16">
-        <v>0.111813150704595</v>
+        <v>0.002333564081503401</v>
       </c>
       <c r="T16">
-        <v>0.111813150704595</v>
+        <v>0.002333564081503401</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>22</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H17">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J17">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.041168333333333</v>
+        <v>1.156459333333333</v>
       </c>
       <c r="N17">
-        <v>6.123505</v>
+        <v>3.469378</v>
       </c>
       <c r="O17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="P17">
-        <v>0.08109158789117853</v>
+        <v>0.04341231465796556</v>
       </c>
       <c r="Q17">
-        <v>5.553060366272777</v>
+        <v>0.07855866799977777</v>
       </c>
       <c r="R17">
-        <v>49.977543296455</v>
+        <v>0.7070280119979999</v>
       </c>
       <c r="S17">
-        <v>0.05073703987555402</v>
+        <v>0.0004736406776721277</v>
       </c>
       <c r="T17">
-        <v>0.05073703987555402</v>
+        <v>0.0004736406776721277</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>26</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H18">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J18">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>6.434522</v>
+        <v>6.571656999999999</v>
       </c>
       <c r="N18">
-        <v>19.303566</v>
+        <v>19.714971</v>
       </c>
       <c r="O18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="P18">
-        <v>0.2556308550253761</v>
+        <v>0.24669336247727</v>
       </c>
       <c r="Q18">
-        <v>17.50531228150066</v>
+        <v>0.4464148505623333</v>
       </c>
       <c r="R18">
-        <v>157.547810533506</v>
+        <v>4.017733655061</v>
       </c>
       <c r="S18">
-        <v>0.1599420263202837</v>
+        <v>0.002691494620858939</v>
       </c>
       <c r="T18">
-        <v>0.1599420263202837</v>
+        <v>0.002691494620858939</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>27</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.720530333333333</v>
+        <v>0.06793033333333333</v>
       </c>
       <c r="H19">
-        <v>8.161591</v>
+        <v>0.203791</v>
       </c>
       <c r="I19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="J19">
-        <v>0.6256757475712644</v>
+        <v>0.01091028389994453</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.514094</v>
+        <v>4.535609</v>
       </c>
       <c r="N19">
-        <v>13.542282</v>
+        <v>13.606827</v>
       </c>
       <c r="O19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="P19">
-        <v>0.1793360421931761</v>
+        <v>0.1702621781830927</v>
       </c>
       <c r="Q19">
-        <v>12.280729654518</v>
+        <v>0.3081054312396667</v>
       </c>
       <c r="R19">
-        <v>110.526566890662</v>
+        <v>2.772948881157</v>
       </c>
       <c r="S19">
-        <v>0.1122062122656873</v>
+        <v>0.001857608701400483</v>
       </c>
       <c r="T19">
-        <v>0.1122062122656873</v>
+        <v>0.001857608701400483</v>
       </c>
     </row>
   </sheetData>
